--- a/templates/emitidos_salida.xlsx
+++ b/templates/emitidos_salida.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,65 +501,60 @@
       </c>
       <c r="I1" s="3" t="inlineStr">
         <is>
-          <t>Tipo Doc. Emisor</t>
+          <t>Nro. Doc. Emisor</t>
         </is>
       </c>
       <c r="J1" s="3" t="inlineStr">
         <is>
-          <t>Nro. Doc. Emisor</t>
+          <t>Denominación Emisor</t>
         </is>
       </c>
       <c r="K1" s="3" t="inlineStr">
         <is>
-          <t>Denominación Emisor</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="inlineStr">
-        <is>
           <t>Condición Fiscal</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>TD</t>
         </is>
       </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Tipo Cambio</t>
+        </is>
+      </c>
       <c r="N1" s="3" t="inlineStr">
         <is>
-          <t>Tipo Cambio</t>
+          <t>Moneda</t>
         </is>
       </c>
       <c r="O1" s="3" t="inlineStr">
         <is>
-          <t>Moneda</t>
+          <t>Alicuota</t>
         </is>
       </c>
       <c r="P1" s="3" t="inlineStr">
         <is>
-          <t>Alicuota</t>
+          <t>Neto</t>
         </is>
       </c>
       <c r="Q1" s="3" t="inlineStr">
         <is>
-          <t>Neto</t>
+          <t>IVA</t>
         </is>
       </c>
       <c r="R1" s="3" t="inlineStr">
         <is>
-          <t>IVA</t>
+          <t>Ex/Ng</t>
         </is>
       </c>
       <c r="S1" s="3" t="inlineStr">
         <is>
-          <t>Ex/Ng</t>
+          <t>Otros Conceptos</t>
         </is>
       </c>
       <c r="T1" s="3" t="inlineStr">
-        <is>
-          <t>Otros Conceptos</t>
-        </is>
-      </c>
-      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -601,45 +596,42 @@
         <v>59738</v>
       </c>
       <c r="I2" t="n">
-        <v>80</v>
-      </c>
-      <c r="J2" t="n">
         <v>30711483523</v>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CH SISTEMAS S.R.L.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>CH SISTEMAS S.R.L.</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="M2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P2" s="5" t="n">
+      <c r="O2" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P2" s="4" t="n">
+        <v>19834.71</v>
+      </c>
       <c r="Q2" s="4" t="n">
-        <v>19834.71</v>
+        <v>4165.29</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>4165.29</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4" t="n">
         <v>24000</v>
       </c>
     </row>
@@ -679,45 +671,42 @@
         <v>82</v>
       </c>
       <c r="I3" t="n">
-        <v>80</v>
-      </c>
-      <c r="J3" t="n">
         <v>23279546369</v>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>BERGA ANDRES MARTIN</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BERGA ANDRES MARTIN</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="M3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P3" s="5" t="n">
+      <c r="O3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>7337440</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>7337440</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4" t="n">
         <v>7337440</v>
       </c>
     </row>
@@ -757,45 +746,42 @@
         <v>45900</v>
       </c>
       <c r="I4" t="n">
-        <v>80</v>
-      </c>
-      <c r="J4" t="n">
         <v>30693148363</v>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>TAC ARGENTINA S.A.</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>TAC ARGENTINA S.A.</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="N4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="M4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P4" s="5" t="n">
+      <c r="O4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>134980</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>134980</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4" t="n">
         <v>134980</v>
       </c>
     </row>
@@ -835,45 +821,42 @@
         <v>9250</v>
       </c>
       <c r="I5" t="n">
-        <v>80</v>
-      </c>
-      <c r="J5" t="n">
         <v>23204725489</v>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>BERGA DIEGO CLAUDIO</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BERGA DIEGO CLAUDIO</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="M5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P5" s="5" t="n">
+      <c r="O5" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P5" s="4" t="n">
+        <v>11389.34</v>
+      </c>
       <c r="Q5" s="4" t="n">
-        <v>11389.34</v>
+        <v>2391.76</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>2391.76</v>
+        <v>0</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4" t="n">
         <v>13781.1</v>
       </c>
     </row>
@@ -913,45 +896,42 @@
         <v>36</v>
       </c>
       <c r="I6" t="n">
-        <v>80</v>
-      </c>
-      <c r="J6" t="n">
         <v>27046080098</v>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>AVATANEO NELIDA BEATRIZ</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>AVATANEO NELIDA BEATRIZ</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="N6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="M6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P6" s="5" t="n">
+      <c r="O6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0</v>
+        <v>954061</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>954061</v>
+        <v>0</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
         <v>954061</v>
       </c>
     </row>
@@ -991,45 +971,42 @@
         <v>13</v>
       </c>
       <c r="I7" t="n">
-        <v>80</v>
-      </c>
-      <c r="J7" t="n">
         <v>20229178076</v>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>FASANO JOSE LUIS ROQUE</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>FASANO JOSE LUIS ROQUE</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="N7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="M7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P7" s="5" t="n">
+      <c r="O7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0</v>
+        <v>1524536</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>1524536</v>
+        <v>0</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4" t="n">
         <v>1524536</v>
       </c>
     </row>
@@ -1069,45 +1046,42 @@
         <v>58860</v>
       </c>
       <c r="I8" t="n">
-        <v>80</v>
-      </c>
-      <c r="J8" t="n">
         <v>30678774495</v>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>OPERADORA DE ESTACIONES DE SERVICIOS SA</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>OPERADORA DE ESTACIONES DE SERVICIOS SA</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="M8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P8" s="5" t="n">
+      <c r="O8" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P8" s="4" t="n">
+        <v>43871.39</v>
+      </c>
       <c r="Q8" s="4" t="n">
-        <v>43871.39</v>
+        <v>9212.99</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>9212.99</v>
+        <v>0</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0</v>
+        <v>9922.68</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>9922.68</v>
-      </c>
-      <c r="U8" s="4" t="n">
         <v>63007.06</v>
       </c>
     </row>
@@ -1147,45 +1121,42 @@
         <v>104507</v>
       </c>
       <c r="I9" t="n">
-        <v>80</v>
-      </c>
-      <c r="J9" t="n">
         <v>30547794482</v>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>AGRONORTE SRL</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>AGRONORTE SRL</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N9" s="4" t="n">
+      <c r="M9" s="4" t="n">
         <v>1460</v>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="P9" s="5" t="n">
+      <c r="O9" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P9" s="4" t="n">
+        <v>185011.2</v>
+      </c>
       <c r="Q9" s="4" t="n">
-        <v>185011.2</v>
+        <v>38850.6</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>38850.6</v>
+        <v>0</v>
       </c>
       <c r="S9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="4" t="n">
         <v>223861.8</v>
       </c>
     </row>
@@ -1225,45 +1196,42 @@
         <v>10983</v>
       </c>
       <c r="I10" t="n">
-        <v>80</v>
-      </c>
-      <c r="J10" t="n">
         <v>20107652834</v>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>LISA OMAR VICTOR</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>LISA OMAR VICTOR</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="M10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P10" s="5" t="n">
+      <c r="O10" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P10" s="4" t="n">
+        <v>190082.64</v>
+      </c>
       <c r="Q10" s="4" t="n">
-        <v>190082.64</v>
+        <v>39917.35</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>39917.35</v>
+        <v>0</v>
       </c>
       <c r="S10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="n">
         <v>229999.99</v>
       </c>
     </row>
@@ -1303,45 +1271,42 @@
         <v>104541</v>
       </c>
       <c r="I11" t="n">
-        <v>80</v>
-      </c>
-      <c r="J11" t="n">
         <v>30547794482</v>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>AGRONORTE SRL</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>AGRONORTE SRL</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N11" s="4" t="n">
+      <c r="M11" s="4" t="n">
         <v>1465</v>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="P11" s="5" t="n">
+      <c r="O11" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P11" s="4" t="n">
+        <v>65397.6</v>
+      </c>
       <c r="Q11" s="4" t="n">
-        <v>65397.6</v>
+        <v>13727.05</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>13727.05</v>
+        <v>0</v>
       </c>
       <c r="S11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4" t="n">
         <v>79124.64999999999</v>
       </c>
     </row>
@@ -1381,45 +1346,42 @@
         <v>1402</v>
       </c>
       <c r="I12" t="n">
-        <v>80</v>
-      </c>
-      <c r="J12" t="n">
         <v>30708922079</v>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>DANIEL A. BASGALL S.R.L.</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>DANIEL A. BASGALL S.R.L.</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="M12" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P12" s="5" t="n">
+      <c r="O12" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P12" s="4" t="n">
+        <v>24348.72</v>
+      </c>
       <c r="Q12" s="4" t="n">
-        <v>24348.72</v>
+        <v>5113.23</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>5113.23</v>
+        <v>0</v>
       </c>
       <c r="S12" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" s="4" t="n">
         <v>29461.95</v>
       </c>
     </row>
@@ -1459,45 +1421,42 @@
         <v>26</v>
       </c>
       <c r="I13" t="n">
-        <v>80</v>
-      </c>
-      <c r="J13" t="n">
         <v>20260996992</v>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>FASANO JULIO CESAR</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>FASANO JULIO CESAR</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="N13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="M13" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P13" s="5" t="n">
+      <c r="O13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>0</v>
+        <v>1526536</v>
       </c>
       <c r="S13" s="4" t="n">
-        <v>1526536</v>
+        <v>0</v>
       </c>
       <c r="T13" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" s="4" t="n">
         <v>1526536</v>
       </c>
     </row>
@@ -1537,45 +1496,42 @@
         <v>15</v>
       </c>
       <c r="I14" t="n">
-        <v>80</v>
-      </c>
-      <c r="J14" t="n">
         <v>27115559562</v>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>FASANO DORITA GUADALUPE</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>FASANO DORITA GUADALUPE</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="N14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="M14" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P14" s="5" t="n">
+      <c r="O14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>0</v>
+        <v>381586</v>
       </c>
       <c r="S14" s="4" t="n">
-        <v>381586</v>
+        <v>0</v>
       </c>
       <c r="T14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" s="4" t="n">
         <v>381586</v>
       </c>
     </row>
@@ -1615,45 +1571,42 @@
         <v>115</v>
       </c>
       <c r="I15" t="n">
-        <v>80</v>
-      </c>
-      <c r="J15" t="n">
         <v>27119467700</v>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VIDONI NORMA ALCIRA</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>VIDONI NORMA ALCIRA</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="N15" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="M15" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P15" s="5" t="n">
+      <c r="O15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>0</v>
+        <v>1144951</v>
       </c>
       <c r="S15" s="4" t="n">
-        <v>1144951</v>
+        <v>0</v>
       </c>
       <c r="T15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" s="4" t="n">
         <v>1144951</v>
       </c>
     </row>
@@ -1693,45 +1646,42 @@
         <v>47516</v>
       </c>
       <c r="I16" t="n">
-        <v>80</v>
-      </c>
-      <c r="J16" t="n">
         <v>30530985624</v>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>COOPERATIVA FEDERAL AGRICOLA GANADERA DE SAN JUSTO LTDA</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>COOPERATIVA FEDERAL AGRICOLA GANADERA DE SAN JUSTO LTDA</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N16" s="4" t="n">
+      <c r="M16" s="4" t="n">
         <v>1441</v>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="P16" s="5" t="n">
+      <c r="O16" s="5" t="n">
         <v>10.5</v>
       </c>
+      <c r="P16" s="4" t="n">
+        <v>123715614</v>
+      </c>
       <c r="Q16" s="4" t="n">
-        <v>123715614</v>
+        <v>12990139.47</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>12990139.47</v>
+        <v>0</v>
       </c>
       <c r="S16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" s="4" t="n">
         <v>136705753.47</v>
       </c>
     </row>
@@ -1771,45 +1721,42 @@
         <v>47516</v>
       </c>
       <c r="I17" t="n">
-        <v>80</v>
-      </c>
-      <c r="J17" t="n">
         <v>30530985624</v>
       </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>COOPERATIVA FEDERAL AGRICOLA GANADERA DE SAN JUSTO LTDA</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>COOPERATIVA FEDERAL AGRICOLA GANADERA DE SAN JUSTO LTDA</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N17" s="4" t="n">
+      <c r="M17" s="4" t="n">
         <v>1441</v>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="P17" s="5" t="n">
+      <c r="O17" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P17" s="4" t="n">
+        <v>71688971.86</v>
+      </c>
       <c r="Q17" s="4" t="n">
-        <v>71688971.86</v>
+        <v>15054688.99</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>15054688.99</v>
+        <v>0</v>
       </c>
       <c r="S17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" s="4" t="n">
         <v>86743660.84999999</v>
       </c>
     </row>
@@ -1849,45 +1796,42 @@
         <v>47521</v>
       </c>
       <c r="I18" t="n">
-        <v>80</v>
-      </c>
-      <c r="J18" t="n">
         <v>30530985624</v>
       </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>COOPERATIVA FEDERAL AGRICOLA GANADERA DE SAN JUSTO LTDA</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>COOPERATIVA FEDERAL AGRICOLA GANADERA DE SAN JUSTO LTDA</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N18" s="4" t="n">
+      <c r="M18" s="4" t="n">
         <v>1441</v>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="P18" s="5" t="n">
+      <c r="O18" s="5" t="n">
         <v>10.5</v>
       </c>
+      <c r="P18" s="4" t="n">
+        <v>36186392</v>
+      </c>
       <c r="Q18" s="4" t="n">
-        <v>36186392</v>
+        <v>3799571.16</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>3799571.16</v>
+        <v>0</v>
       </c>
       <c r="S18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" s="4" t="n">
         <v>39985963.16</v>
       </c>
     </row>
@@ -1927,45 +1871,42 @@
         <v>47521</v>
       </c>
       <c r="I19" t="n">
-        <v>80</v>
-      </c>
-      <c r="J19" t="n">
         <v>30530985624</v>
       </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>COOPERATIVA FEDERAL AGRICOLA GANADERA DE SAN JUSTO LTDA</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>COOPERATIVA FEDERAL AGRICOLA GANADERA DE SAN JUSTO LTDA</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N19" s="4" t="n">
+      <c r="M19" s="4" t="n">
         <v>1441</v>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="P19" s="5" t="n">
+      <c r="O19" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P19" s="4" t="n">
+        <v>54181600</v>
+      </c>
       <c r="Q19" s="4" t="n">
-        <v>54181600</v>
+        <v>11378136</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>11378136</v>
+        <v>0</v>
       </c>
       <c r="S19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" s="4" t="n">
         <v>65559736</v>
       </c>
     </row>
@@ -2005,45 +1946,42 @@
         <v>391</v>
       </c>
       <c r="I20" t="n">
-        <v>80</v>
-      </c>
-      <c r="J20" t="n">
         <v>27345076528</v>
       </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PATANE MARIA GUADALUPE</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>PATANE MARIA GUADALUPE</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="N20" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" t="inlineStr">
+      <c r="M20" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P20" s="5" t="n">
+      <c r="O20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R20" s="4" t="n">
-        <v>0</v>
+        <v>268000</v>
       </c>
       <c r="S20" s="4" t="n">
-        <v>268000</v>
+        <v>0</v>
       </c>
       <c r="T20" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" s="4" t="n">
         <v>268000</v>
       </c>
     </row>
@@ -2083,45 +2021,42 @@
         <v>62935</v>
       </c>
       <c r="I21" t="n">
-        <v>80</v>
-      </c>
-      <c r="J21" t="n">
         <v>30678774495</v>
       </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>OPERADORA DE ESTACIONES DE SERVICIOS SA</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>OPERADORA DE ESTACIONES DE SERVICIOS SA</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N21" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" t="inlineStr">
+      <c r="M21" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P21" s="5" t="n">
+      <c r="O21" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P21" s="4" t="n">
+        <v>73318.67</v>
+      </c>
       <c r="Q21" s="4" t="n">
-        <v>73318.67</v>
+        <v>15396.92</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>15396.92</v>
+        <v>0</v>
       </c>
       <c r="S21" s="4" t="n">
-        <v>0</v>
+        <v>11284.44</v>
       </c>
       <c r="T21" s="4" t="n">
-        <v>11284.44</v>
-      </c>
-      <c r="U21" s="4" t="n">
         <v>100000.03</v>
       </c>
     </row>
@@ -2161,45 +2096,42 @@
         <v>58624</v>
       </c>
       <c r="I22" t="n">
-        <v>80</v>
-      </c>
-      <c r="J22" t="n">
         <v>20204725064</v>
       </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ANGELONI DIEGO RAMON</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>ANGELONI DIEGO RAMON</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N22" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" t="inlineStr">
+      <c r="M22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P22" s="5" t="n">
+      <c r="O22" s="5" t="n">
         <v>10.5</v>
       </c>
+      <c r="P22" s="4" t="n">
+        <v>16715.29</v>
+      </c>
       <c r="Q22" s="4" t="n">
-        <v>16715.29</v>
+        <v>1755.11</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>1755.11</v>
+        <v>0</v>
       </c>
       <c r="S22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T22" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" s="4" t="n">
         <v>18470.4</v>
       </c>
     </row>
@@ -2239,45 +2171,42 @@
         <v>58624</v>
       </c>
       <c r="I23" t="n">
-        <v>80</v>
-      </c>
-      <c r="J23" t="n">
         <v>20204725064</v>
       </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ANGELONI DIEGO RAMON</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>ANGELONI DIEGO RAMON</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N23" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O23" t="inlineStr">
+      <c r="M23" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P23" s="5" t="n">
+      <c r="O23" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P23" s="4" t="n">
+        <v>43993.75</v>
+      </c>
       <c r="Q23" s="4" t="n">
-        <v>43993.75</v>
+        <v>9238.690000000001</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>9238.690000000001</v>
+        <v>0</v>
       </c>
       <c r="S23" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T23" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" s="4" t="n">
         <v>53232.44</v>
       </c>
     </row>
@@ -2317,45 +2246,42 @@
         <v>64548</v>
       </c>
       <c r="I24" t="n">
-        <v>80</v>
-      </c>
-      <c r="J24" t="n">
         <v>30714652644</v>
       </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>CHARTIER WALTER Y CHARTIER CRISTIAN S.H.</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>CHARTIER WALTER Y CHARTIER CRISTIAN S.H.</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N24" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" t="inlineStr">
+      <c r="M24" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P24" s="5" t="n">
+      <c r="O24" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P24" s="4" t="n">
+        <v>28018.7</v>
+      </c>
       <c r="Q24" s="4" t="n">
-        <v>28018.7</v>
+        <v>5883.93</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>5883.93</v>
+        <v>0</v>
       </c>
       <c r="S24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T24" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" s="4" t="n">
         <v>33902.63</v>
       </c>
     </row>
@@ -2395,45 +2321,42 @@
         <v>6444</v>
       </c>
       <c r="I25" t="n">
-        <v>80</v>
-      </c>
-      <c r="J25" t="n">
         <v>30530985624</v>
       </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>COOPERATIVA FEDERAL AGRICOLA GANADERA DE SAN JUSTO LTDA</t>
+        </is>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>COOPERATIVA FEDERAL AGRICOLA GANADERA DE SAN JUSTO LTDA</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N25" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" t="inlineStr">
+      <c r="M25" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P25" s="5" t="n">
+      <c r="O25" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P25" s="4" t="n">
+        <v>20887039.76</v>
+      </c>
       <c r="Q25" s="4" t="n">
-        <v>20887039.76</v>
+        <v>4386278.35</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>4386278.35</v>
+        <v>0</v>
       </c>
       <c r="S25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T25" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" s="4" t="n">
         <v>25273318.11</v>
       </c>
     </row>
@@ -2473,45 +2396,42 @@
         <v>6445</v>
       </c>
       <c r="I26" t="n">
-        <v>80</v>
-      </c>
-      <c r="J26" t="n">
         <v>30530985624</v>
       </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>COOPERATIVA FEDERAL AGRICOLA GANADERA DE SAN JUSTO LTDA</t>
+        </is>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>COOPERATIVA FEDERAL AGRICOLA GANADERA DE SAN JUSTO LTDA</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N26" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O26" t="inlineStr">
+      <c r="M26" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P26" s="5" t="n">
+      <c r="O26" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P26" s="4" t="n">
+        <v>27995907.18</v>
+      </c>
       <c r="Q26" s="4" t="n">
-        <v>27995907.18</v>
+        <v>5879140.51</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>5879140.51</v>
+        <v>0</v>
       </c>
       <c r="S26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T26" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" s="4" t="n">
         <v>33875047.69</v>
       </c>
     </row>
@@ -2551,45 +2471,42 @@
         <v>21860</v>
       </c>
       <c r="I27" t="n">
-        <v>80</v>
-      </c>
-      <c r="J27" t="n">
         <v>30547794482</v>
       </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>AGRONORTE SRL</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>AGRONORTE SRL</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N27" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" t="inlineStr">
+      <c r="M27" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P27" s="5" t="n">
+      <c r="O27" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P27" s="4" t="n">
+        <v>1480.37</v>
+      </c>
       <c r="Q27" s="4" t="n">
-        <v>1480.37</v>
+        <v>310.88</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>310.88</v>
+        <v>0</v>
       </c>
       <c r="S27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T27" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="4" t="n">
         <v>1791.25</v>
       </c>
     </row>
@@ -2629,45 +2546,42 @@
         <v>33565</v>
       </c>
       <c r="I28" t="n">
-        <v>80</v>
-      </c>
-      <c r="J28" t="n">
         <v>30547794482</v>
       </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>AGRONORTE SRL</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>AGRONORTE SRL</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N28" s="4" t="n">
+      <c r="M28" s="4" t="n">
         <v>1465</v>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="P28" s="5" t="n">
+      <c r="O28" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P28" s="4" t="n">
+        <v>-99971.59999999999</v>
+      </c>
       <c r="Q28" s="4" t="n">
-        <v>-99971.59999999999</v>
+        <v>-20993.45</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>-20993.45</v>
+        <v>0</v>
       </c>
       <c r="S28" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" s="4" t="n">
         <v>-120965.05</v>
       </c>
     </row>
@@ -2707,45 +2621,42 @@
         <v>27</v>
       </c>
       <c r="I29" t="n">
-        <v>80</v>
-      </c>
-      <c r="J29" t="n">
         <v>27163294678</v>
       </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>FASANO CELIA ESTER</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>FASANO CELIA ESTER</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="N29" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" t="inlineStr">
+      <c r="M29" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P29" s="5" t="n">
+      <c r="O29" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q29" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>0</v>
+        <v>2480597</v>
       </c>
       <c r="S29" s="4" t="n">
-        <v>2480597</v>
+        <v>0</v>
       </c>
       <c r="T29" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" s="4" t="n">
         <v>2480597</v>
       </c>
     </row>
@@ -2785,45 +2696,42 @@
         <v>21</v>
       </c>
       <c r="I30" t="n">
-        <v>80</v>
-      </c>
-      <c r="J30" t="n">
         <v>27126249492</v>
       </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>FASANO GRACIELA BEATRIZ</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>FASANO GRACIELA BEATRIZ</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="N30" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O30" t="inlineStr">
+      <c r="M30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P30" s="5" t="n">
+      <c r="O30" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>0</v>
+        <v>13040000</v>
       </c>
       <c r="S30" s="4" t="n">
-        <v>13040000</v>
+        <v>0</v>
       </c>
       <c r="T30" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" s="4" t="n">
         <v>13040000</v>
       </c>
     </row>
@@ -2863,45 +2771,42 @@
         <v>22</v>
       </c>
       <c r="I31" t="n">
-        <v>80</v>
-      </c>
-      <c r="J31" t="n">
         <v>27126249492</v>
       </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>FASANO GRACIELA BEATRIZ</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>FASANO GRACIELA BEATRIZ</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="N31" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" t="inlineStr">
+      <c r="M31" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P31" s="5" t="n">
+      <c r="O31" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q31" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R31" s="4" t="n">
-        <v>0</v>
+        <v>4007520</v>
       </c>
       <c r="S31" s="4" t="n">
-        <v>4007520</v>
+        <v>0</v>
       </c>
       <c r="T31" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" s="4" t="n">
         <v>4007520</v>
       </c>
     </row>
@@ -2941,45 +2846,42 @@
         <v>19</v>
       </c>
       <c r="I32" t="n">
-        <v>80</v>
-      </c>
-      <c r="J32" t="n">
         <v>27023306447</v>
       </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>GILARDI HILDA ROQUELINA</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>GILARDI HILDA ROQUELINA</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="N32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" t="inlineStr">
+      <c r="M32" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P32" s="5" t="n">
+      <c r="O32" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>0</v>
+        <v>16000000</v>
       </c>
       <c r="S32" s="4" t="n">
-        <v>16000000</v>
+        <v>0</v>
       </c>
       <c r="T32" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" s="4" t="n">
         <v>16000000</v>
       </c>
     </row>
@@ -3019,45 +2921,42 @@
         <v>398</v>
       </c>
       <c r="I33" t="n">
-        <v>80</v>
-      </c>
-      <c r="J33" t="n">
         <v>30710175035</v>
       </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>FIDEICOMISO CIDESA</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>FIDEICOMISO CIDESA</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" t="inlineStr">
+      <c r="M33" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P33" s="5" t="n">
+      <c r="O33" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P33" s="4" t="n">
+        <v>28925.61</v>
+      </c>
       <c r="Q33" s="4" t="n">
-        <v>28925.61</v>
+        <v>6074.38</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>6074.38</v>
+        <v>0</v>
       </c>
       <c r="S33" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" s="4" t="n">
         <v>34999.99</v>
       </c>
     </row>
@@ -3097,45 +2996,42 @@
         <v>49</v>
       </c>
       <c r="I34" t="n">
-        <v>80</v>
-      </c>
-      <c r="J34" t="n">
         <v>20321849238</v>
       </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>BARONI BRUNO JOSE</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>BARONI BRUNO JOSE</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" t="inlineStr">
+      <c r="M34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P34" s="5" t="n">
+      <c r="O34" s="5" t="n">
         <v>10.5</v>
       </c>
+      <c r="P34" s="4" t="n">
+        <v>1013.52</v>
+      </c>
       <c r="Q34" s="4" t="n">
-        <v>1013.52</v>
+        <v>106.42</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>106.42</v>
+        <v>0</v>
       </c>
       <c r="S34" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" s="4" t="n">
         <v>1119.94</v>
       </c>
     </row>
@@ -3175,45 +3071,42 @@
         <v>50</v>
       </c>
       <c r="I35" t="n">
-        <v>80</v>
-      </c>
-      <c r="J35" t="n">
         <v>20321849238</v>
       </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>BARONI BRUNO JOSE</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>BARONI BRUNO JOSE</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" t="inlineStr">
+      <c r="M35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P35" s="5" t="n">
+      <c r="O35" s="5" t="n">
         <v>10.5</v>
       </c>
+      <c r="P35" s="4" t="n">
+        <v>1014120</v>
+      </c>
       <c r="Q35" s="4" t="n">
-        <v>1014120</v>
+        <v>106482.6</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>106482.6</v>
+        <v>0</v>
       </c>
       <c r="S35" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" s="4" t="n">
         <v>1120602.6</v>
       </c>
     </row>
@@ -3253,45 +3146,42 @@
         <v>3125</v>
       </c>
       <c r="I36" t="n">
-        <v>80</v>
-      </c>
-      <c r="J36" t="n">
         <v>33682997589</v>
       </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>FORCAM SA</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>FORCAM SA</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N36" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" t="inlineStr">
+      <c r="M36" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P36" s="5" t="n">
+      <c r="O36" s="5" t="n">
         <v>10.5</v>
       </c>
+      <c r="P36" s="4" t="n">
+        <v>66877828.05</v>
+      </c>
       <c r="Q36" s="4" t="n">
-        <v>66877828.05</v>
+        <v>7022171.95</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>7022171.95</v>
+        <v>0</v>
       </c>
       <c r="S36" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" s="4" t="n">
         <v>73900000</v>
       </c>
     </row>
@@ -3331,45 +3221,42 @@
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>80</v>
-      </c>
-      <c r="J37" t="n">
         <v>20321849238</v>
       </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>BARONI BRUNO JOSE</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>BARONI BRUNO JOSE</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O37" t="inlineStr">
+      <c r="M37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P37" s="5" t="n">
+      <c r="O37" s="5" t="n">
         <v>10.5</v>
       </c>
+      <c r="P37" s="4" t="n">
+        <v>-1013.52</v>
+      </c>
       <c r="Q37" s="4" t="n">
-        <v>-1013.52</v>
+        <v>-106.42</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>-106.42</v>
+        <v>0</v>
       </c>
       <c r="S37" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" s="4" t="n">
         <v>-1119.94</v>
       </c>
     </row>
@@ -3409,45 +3296,42 @@
         <v>12542</v>
       </c>
       <c r="I38" t="n">
-        <v>80</v>
-      </c>
-      <c r="J38" t="n">
         <v>30716831929</v>
       </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>AGRO ENERGY RECONQUISTA SRL</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>AGRO ENERGY RECONQUISTA SRL</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" t="inlineStr">
+      <c r="M38" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P38" s="5" t="n">
+      <c r="O38" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P38" s="4" t="n">
+        <v>2414507.4</v>
+      </c>
       <c r="Q38" s="4" t="n">
-        <v>2414507.4</v>
+        <v>507046.55</v>
       </c>
       <c r="R38" s="4" t="n">
-        <v>507046.55</v>
+        <v>0</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>0</v>
+        <v>438446</v>
       </c>
       <c r="T38" s="4" t="n">
-        <v>438446</v>
-      </c>
-      <c r="U38" s="4" t="n">
         <v>3359999.95</v>
       </c>
     </row>
@@ -3487,45 +3371,42 @@
         <v>16876</v>
       </c>
       <c r="I39" t="n">
-        <v>80</v>
-      </c>
-      <c r="J39" t="n">
         <v>30711245355</v>
       </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>AGRONOMIA PAMPA S.R.L.</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>AGRONOMIA PAMPA S.R.L.</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N39" s="4" t="n">
+      <c r="M39" s="4" t="n">
         <v>1452.5</v>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="P39" s="5" t="n">
+      <c r="O39" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P39" s="4" t="n">
+        <v>5243525</v>
+      </c>
       <c r="Q39" s="4" t="n">
-        <v>5243525</v>
+        <v>1101140.25</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>1101140.25</v>
+        <v>0</v>
       </c>
       <c r="S39" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" s="4" t="n">
         <v>6344665.25</v>
       </c>
     </row>
@@ -3565,45 +3446,42 @@
         <v>403</v>
       </c>
       <c r="I40" t="n">
-        <v>80</v>
-      </c>
-      <c r="J40" t="n">
         <v>30710175035</v>
       </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>FIDEICOMISO CIDESA</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>FIDEICOMISO CIDESA</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" t="inlineStr">
+      <c r="M40" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P40" s="5" t="n">
+      <c r="O40" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P40" s="4" t="n">
+        <v>25689.67</v>
+      </c>
       <c r="Q40" s="4" t="n">
-        <v>25689.67</v>
+        <v>5394.83</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>5394.83</v>
+        <v>0</v>
       </c>
       <c r="S40" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" s="4" t="n">
         <v>31084.5</v>
       </c>
     </row>
@@ -3643,45 +3521,42 @@
         <v>406</v>
       </c>
       <c r="I41" t="n">
-        <v>80</v>
-      </c>
-      <c r="J41" t="n">
         <v>30710175035</v>
       </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>FIDEICOMISO CIDESA</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>FIDEICOMISO CIDESA</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" t="inlineStr">
+      <c r="M41" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P41" s="5" t="n">
+      <c r="O41" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P41" s="4" t="n">
+        <v>24790.53</v>
+      </c>
       <c r="Q41" s="4" t="n">
-        <v>24790.53</v>
+        <v>5206.01</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>5206.01</v>
+        <v>0</v>
       </c>
       <c r="S41" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" s="4" t="n">
         <v>29996.54</v>
       </c>
     </row>
@@ -3721,45 +3596,42 @@
         <v>59653</v>
       </c>
       <c r="I42" t="n">
-        <v>80</v>
-      </c>
-      <c r="J42" t="n">
         <v>30678774495</v>
       </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>OPERADORA DE ESTACIONES DE SERVICIOS SA</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>OPERADORA DE ESTACIONES DE SERVICIOS SA</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N42" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O42" t="inlineStr">
+      <c r="M42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P42" s="5" t="n">
+      <c r="O42" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P42" s="4" t="n">
+        <v>73328.36</v>
+      </c>
       <c r="Q42" s="4" t="n">
-        <v>73328.36</v>
+        <v>15398.95</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>15398.95</v>
+        <v>0</v>
       </c>
       <c r="S42" s="4" t="n">
-        <v>0</v>
+        <v>11272.6</v>
       </c>
       <c r="T42" s="4" t="n">
-        <v>11272.6</v>
-      </c>
-      <c r="U42" s="4" t="n">
         <v>99999.91</v>
       </c>
     </row>
@@ -3799,45 +3671,42 @@
         <v>404</v>
       </c>
       <c r="I43" t="n">
-        <v>80</v>
-      </c>
-      <c r="J43" t="n">
         <v>30710175035</v>
       </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>FIDEICOMISO CIDESA</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>FIDEICOMISO CIDESA</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O43" t="inlineStr">
+      <c r="M43" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P43" s="5" t="n">
+      <c r="O43" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P43" s="4" t="n">
+        <v>24232.52</v>
+      </c>
       <c r="Q43" s="4" t="n">
-        <v>24232.52</v>
+        <v>5088.83</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>5088.83</v>
+        <v>0</v>
       </c>
       <c r="S43" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" s="4" t="n">
         <v>29321.35</v>
       </c>
     </row>
@@ -3877,45 +3746,42 @@
         <v>405</v>
       </c>
       <c r="I44" t="n">
-        <v>80</v>
-      </c>
-      <c r="J44" t="n">
         <v>30710175035</v>
       </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>FIDEICOMISO CIDESA</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>FIDEICOMISO CIDESA</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N44" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O44" t="inlineStr">
+      <c r="M44" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P44" s="5" t="n">
+      <c r="O44" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P44" s="4" t="n">
+        <v>24232.52</v>
+      </c>
       <c r="Q44" s="4" t="n">
-        <v>24232.52</v>
+        <v>5088.83</v>
       </c>
       <c r="R44" s="4" t="n">
-        <v>5088.83</v>
+        <v>0</v>
       </c>
       <c r="S44" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" s="4" t="n">
         <v>29321.35</v>
       </c>
     </row>
@@ -3955,45 +3821,42 @@
         <v>402</v>
       </c>
       <c r="I45" t="n">
-        <v>80</v>
-      </c>
-      <c r="J45" t="n">
         <v>30710175035</v>
       </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>FIDEICOMISO CIDESA</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>FIDEICOMISO CIDESA</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="N45" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O45" t="inlineStr">
+      <c r="M45" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P45" s="5" t="n">
+      <c r="O45" s="5" t="n">
         <v>21</v>
       </c>
+      <c r="P45" s="4" t="n">
+        <v>31156.79</v>
+      </c>
       <c r="Q45" s="4" t="n">
-        <v>31156.79</v>
+        <v>6542.93</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>6542.93</v>
+        <v>0</v>
       </c>
       <c r="S45" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" s="4" t="n">
         <v>37699.72</v>
       </c>
     </row>
@@ -4033,45 +3896,42 @@
         <v>101</v>
       </c>
       <c r="I46" t="n">
-        <v>80</v>
-      </c>
-      <c r="J46" t="n">
         <v>30710175035</v>
       </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>FIDEICOMISO CIDESA</t>
+        </is>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>FIDEICOMISO CIDESA</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="N46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O46" t="inlineStr">
+      <c r="M46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P46" s="5" t="n">
+      <c r="O46" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R46" s="4" t="n">
-        <v>0</v>
+        <v>-29996.54</v>
       </c>
       <c r="S46" s="4" t="n">
-        <v>-29996.54</v>
+        <v>0</v>
       </c>
       <c r="T46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" s="4" t="n">
         <v>-29996.54</v>
       </c>
     </row>
@@ -4111,45 +3971,42 @@
         <v>98</v>
       </c>
       <c r="I47" t="n">
-        <v>80</v>
-      </c>
-      <c r="J47" t="n">
         <v>30710175035</v>
       </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>FIDEICOMISO CIDESA</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>FIDEICOMISO CIDESA</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="N47" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O47" t="inlineStr">
+      <c r="M47" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P47" s="5" t="n">
+      <c r="O47" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>0</v>
+        <v>-31084.5</v>
       </c>
       <c r="S47" s="4" t="n">
-        <v>-31084.5</v>
+        <v>0</v>
       </c>
       <c r="T47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" s="4" t="n">
         <v>-31084.5</v>
       </c>
     </row>
@@ -4189,45 +4046,42 @@
         <v>99</v>
       </c>
       <c r="I48" t="n">
-        <v>80</v>
-      </c>
-      <c r="J48" t="n">
         <v>30710175035</v>
       </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>FIDEICOMISO CIDESA</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>FIDEICOMISO CIDESA</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="N48" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O48" t="inlineStr">
+      <c r="M48" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P48" s="5" t="n">
+      <c r="O48" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q48" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>0</v>
+        <v>-29321.35</v>
       </c>
       <c r="S48" s="4" t="n">
-        <v>-29321.35</v>
+        <v>0</v>
       </c>
       <c r="T48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" s="4" t="n">
         <v>-29321.35</v>
       </c>
     </row>
@@ -4267,45 +4121,42 @@
         <v>97</v>
       </c>
       <c r="I49" t="n">
-        <v>80</v>
-      </c>
-      <c r="J49" t="n">
         <v>30710175035</v>
       </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>FIDEICOMISO CIDESA</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>FIDEICOMISO CIDESA</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="N49" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O49" t="inlineStr">
+      <c r="M49" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P49" s="5" t="n">
+      <c r="O49" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q49" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>0</v>
+        <v>-37699.71</v>
       </c>
       <c r="S49" s="4" t="n">
-        <v>-37699.71</v>
+        <v>0</v>
       </c>
       <c r="T49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" s="4" t="n">
         <v>-37699.71</v>
       </c>
     </row>
@@ -4345,45 +4196,42 @@
         <v>100</v>
       </c>
       <c r="I50" t="n">
-        <v>80</v>
-      </c>
-      <c r="J50" t="n">
         <v>30710175035</v>
       </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>FIDEICOMISO CIDESA</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>FIDEICOMISO CIDESA</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="N50" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" t="inlineStr">
+      <c r="M50" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P50" s="5" t="n">
+      <c r="O50" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q50" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R50" s="4" t="n">
-        <v>0</v>
+        <v>-29321.35</v>
       </c>
       <c r="S50" s="4" t="n">
-        <v>-29321.35</v>
+        <v>0</v>
       </c>
       <c r="T50" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U50" s="4" t="n">
         <v>-29321.35</v>
       </c>
     </row>
@@ -4423,45 +4271,42 @@
         <v>18</v>
       </c>
       <c r="I51" t="n">
-        <v>80</v>
-      </c>
-      <c r="J51" t="n">
         <v>23078775599</v>
       </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>GIORDANO ELSO OSCAR</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>GIORDANO ELSO OSCAR</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="N51" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" t="inlineStr">
+      <c r="M51" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P51" s="5" t="n">
+      <c r="O51" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q51" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>0</v>
+        <v>5940000</v>
       </c>
       <c r="S51" s="4" t="n">
-        <v>5940000</v>
+        <v>0</v>
       </c>
       <c r="T51" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" s="4" t="n">
         <v>5940000</v>
       </c>
     </row>
@@ -4501,45 +4346,42 @@
         <v>13</v>
       </c>
       <c r="I52" t="n">
-        <v>80</v>
-      </c>
-      <c r="J52" t="n">
         <v>27127549953</v>
       </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>BERGA MIRTA ANA</t>
+        </is>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>BERGA MIRTA ANA</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="N52" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O52" t="inlineStr">
+      <c r="M52" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P52" s="5" t="n">
+      <c r="O52" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q52" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R52" s="4" t="n">
-        <v>0</v>
+        <v>3200000</v>
       </c>
       <c r="S52" s="4" t="n">
-        <v>3200000</v>
+        <v>0</v>
       </c>
       <c r="T52" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" s="4" t="n">
         <v>3200000</v>
       </c>
     </row>
@@ -4579,45 +4421,42 @@
         <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>80</v>
-      </c>
-      <c r="J53" t="n">
         <v>27402831486</v>
       </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>IBARRA MARIA ISABEL</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>IBARRA MARIA ISABEL</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="N53" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O53" t="inlineStr">
+      <c r="M53" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P53" s="5" t="n">
+      <c r="O53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q53" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>0</v>
+        <v>105000</v>
       </c>
       <c r="S53" s="4" t="n">
-        <v>105000</v>
+        <v>0</v>
       </c>
       <c r="T53" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U53" s="4" t="n">
         <v>105000</v>
       </c>
     </row>
@@ -4657,45 +4496,42 @@
         <v>869</v>
       </c>
       <c r="I54" t="n">
-        <v>80</v>
-      </c>
-      <c r="J54" t="n">
         <v>20285260613</v>
       </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>INGIGNOLI WALTER ERIKO</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>INGIGNOLI WALTER ERIKO</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="N54" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O54" t="inlineStr">
+      <c r="M54" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="inlineStr">
         <is>
           <t>$</t>
         </is>
       </c>
-      <c r="P54" s="5" t="n">
+      <c r="O54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q54" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>0</v>
+        <v>213000</v>
       </c>
       <c r="S54" s="4" t="n">
-        <v>213000</v>
+        <v>0</v>
       </c>
       <c r="T54" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U54" s="4" t="n">
         <v>213000</v>
       </c>
     </row>

--- a/templates/emitidos_salida.xlsx
+++ b/templates/emitidos_salida.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
     <col width="6" customWidth="1" style="4" min="13" max="13"/>
     <col width="10.7109375" customWidth="1" min="14" max="14"/>
     <col width="8.7109375" customWidth="1" style="5" min="15" max="15"/>
-    <col width="15.7109375" customWidth="1" style="4" min="16" max="20"/>
+    <col width="8" customWidth="1" style="4" min="16" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -534,27 +534,32 @@
           <t>Alicuota</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Cód</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Neto</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>IVA</t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>Ex/Ng</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>Otros Conceptos</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -619,19 +624,19 @@
       <c r="O2" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P2" s="4" t="n">
+      <c r="Q2" s="4" t="n">
         <v>19834.71</v>
       </c>
-      <c r="Q2" s="4" t="n">
+      <c r="R2" s="4" t="n">
         <v>4165.29</v>
       </c>
-      <c r="R2" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4" t="n">
         <v>24000</v>
       </c>
     </row>
@@ -694,19 +699,19 @@
       <c r="O3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P3" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>7337440</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4" t="n">
         <v>7337440</v>
       </c>
     </row>
@@ -769,19 +774,19 @@
       <c r="O4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P4" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>134980</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4" t="n">
         <v>134980</v>
       </c>
     </row>
@@ -844,19 +849,19 @@
       <c r="O5" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P5" s="4" t="n">
+      <c r="Q5" s="4" t="n">
         <v>11389.34</v>
       </c>
-      <c r="Q5" s="4" t="n">
+      <c r="R5" s="4" t="n">
         <v>2391.76</v>
       </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4" t="n">
         <v>13781.1</v>
       </c>
     </row>
@@ -919,19 +924,19 @@
       <c r="O6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="n">
         <v>954061</v>
       </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
         <v>954061</v>
       </c>
     </row>
@@ -994,19 +999,19 @@
       <c r="O7" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="4" t="n">
         <v>1524536</v>
       </c>
-      <c r="S7" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4" t="n">
         <v>1524536</v>
       </c>
     </row>
@@ -1069,19 +1074,19 @@
       <c r="O8" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P8" s="4" t="n">
+      <c r="Q8" s="4" t="n">
         <v>43871.39</v>
       </c>
-      <c r="Q8" s="4" t="n">
+      <c r="R8" s="4" t="n">
         <v>9212.99</v>
       </c>
-      <c r="R8" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4" t="n">
         <v>9922.68</v>
       </c>
-      <c r="T8" s="4" t="n">
+      <c r="U8" s="4" t="n">
         <v>63007.06</v>
       </c>
     </row>
@@ -1144,19 +1149,19 @@
       <c r="O9" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P9" s="4" t="n">
+      <c r="Q9" s="4" t="n">
         <v>185011.2</v>
       </c>
-      <c r="Q9" s="4" t="n">
+      <c r="R9" s="4" t="n">
         <v>38850.6</v>
       </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4" t="n">
         <v>223861.8</v>
       </c>
     </row>
@@ -1219,19 +1224,19 @@
       <c r="O10" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P10" s="4" t="n">
+      <c r="Q10" s="4" t="n">
         <v>190082.64</v>
       </c>
-      <c r="Q10" s="4" t="n">
+      <c r="R10" s="4" t="n">
         <v>39917.35</v>
       </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4" t="n">
         <v>229999.99</v>
       </c>
     </row>
@@ -1294,19 +1299,19 @@
       <c r="O11" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P11" s="4" t="n">
+      <c r="Q11" s="4" t="n">
         <v>65397.6</v>
       </c>
-      <c r="Q11" s="4" t="n">
+      <c r="R11" s="4" t="n">
         <v>13727.05</v>
       </c>
-      <c r="R11" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4" t="n">
         <v>79124.64999999999</v>
       </c>
     </row>
@@ -1369,19 +1374,19 @@
       <c r="O12" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P12" s="4" t="n">
+      <c r="Q12" s="4" t="n">
         <v>24348.72</v>
       </c>
-      <c r="Q12" s="4" t="n">
+      <c r="R12" s="4" t="n">
         <v>5113.23</v>
       </c>
-      <c r="R12" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S12" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4" t="n">
         <v>29461.95</v>
       </c>
     </row>
@@ -1444,19 +1449,19 @@
       <c r="O13" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P13" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="4" t="n">
         <v>1526536</v>
       </c>
-      <c r="S13" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T13" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4" t="n">
         <v>1526536</v>
       </c>
     </row>
@@ -1519,19 +1524,19 @@
       <c r="O14" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P14" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q14" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="4" t="n">
         <v>381586</v>
       </c>
-      <c r="S14" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4" t="n">
         <v>381586</v>
       </c>
     </row>
@@ -1594,19 +1599,19 @@
       <c r="O15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P15" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4" t="n">
         <v>1144951</v>
       </c>
-      <c r="S15" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4" t="n">
         <v>1144951</v>
       </c>
     </row>
@@ -1669,19 +1674,19 @@
       <c r="O16" s="5" t="n">
         <v>10.5</v>
       </c>
-      <c r="P16" s="4" t="n">
+      <c r="Q16" s="4" t="n">
         <v>123715614</v>
       </c>
-      <c r="Q16" s="4" t="n">
+      <c r="R16" s="4" t="n">
         <v>12990139.47</v>
       </c>
-      <c r="R16" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S16" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4" t="n">
         <v>136705753.47</v>
       </c>
     </row>
@@ -1744,19 +1749,19 @@
       <c r="O17" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P17" s="4" t="n">
+      <c r="Q17" s="4" t="n">
         <v>71688971.86</v>
       </c>
-      <c r="Q17" s="4" t="n">
+      <c r="R17" s="4" t="n">
         <v>15054688.99</v>
       </c>
-      <c r="R17" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S17" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4" t="n">
         <v>86743660.84999999</v>
       </c>
     </row>
@@ -1819,19 +1824,19 @@
       <c r="O18" s="5" t="n">
         <v>10.5</v>
       </c>
-      <c r="P18" s="4" t="n">
+      <c r="Q18" s="4" t="n">
         <v>36186392</v>
       </c>
-      <c r="Q18" s="4" t="n">
+      <c r="R18" s="4" t="n">
         <v>3799571.16</v>
       </c>
-      <c r="R18" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S18" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T18" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4" t="n">
         <v>39985963.16</v>
       </c>
     </row>
@@ -1894,19 +1899,19 @@
       <c r="O19" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P19" s="4" t="n">
+      <c r="Q19" s="4" t="n">
         <v>54181600</v>
       </c>
-      <c r="Q19" s="4" t="n">
+      <c r="R19" s="4" t="n">
         <v>11378136</v>
       </c>
-      <c r="R19" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T19" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4" t="n">
         <v>65559736</v>
       </c>
     </row>
@@ -1969,19 +1974,19 @@
       <c r="O20" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P20" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q20" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="4" t="n">
         <v>268000</v>
       </c>
-      <c r="S20" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="4" t="n">
         <v>268000</v>
       </c>
     </row>
@@ -2044,19 +2049,19 @@
       <c r="O21" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P21" s="4" t="n">
+      <c r="Q21" s="4" t="n">
         <v>73318.67</v>
       </c>
-      <c r="Q21" s="4" t="n">
+      <c r="R21" s="4" t="n">
         <v>15396.92</v>
       </c>
-      <c r="R21" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="4" t="n">
         <v>11284.44</v>
       </c>
-      <c r="T21" s="4" t="n">
+      <c r="U21" s="4" t="n">
         <v>100000.03</v>
       </c>
     </row>
@@ -2119,19 +2124,19 @@
       <c r="O22" s="5" t="n">
         <v>10.5</v>
       </c>
-      <c r="P22" s="4" t="n">
+      <c r="Q22" s="4" t="n">
         <v>16715.29</v>
       </c>
-      <c r="Q22" s="4" t="n">
+      <c r="R22" s="4" t="n">
         <v>1755.11</v>
       </c>
-      <c r="R22" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T22" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4" t="n">
         <v>18470.4</v>
       </c>
     </row>
@@ -2194,19 +2199,19 @@
       <c r="O23" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P23" s="4" t="n">
+      <c r="Q23" s="4" t="n">
         <v>43993.75</v>
       </c>
-      <c r="Q23" s="4" t="n">
+      <c r="R23" s="4" t="n">
         <v>9238.690000000001</v>
       </c>
-      <c r="R23" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S23" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T23" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4" t="n">
         <v>53232.44</v>
       </c>
     </row>
@@ -2269,19 +2274,19 @@
       <c r="O24" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P24" s="4" t="n">
+      <c r="Q24" s="4" t="n">
         <v>28018.7</v>
       </c>
-      <c r="Q24" s="4" t="n">
+      <c r="R24" s="4" t="n">
         <v>5883.93</v>
       </c>
-      <c r="R24" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T24" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="4" t="n">
         <v>33902.63</v>
       </c>
     </row>
@@ -2344,19 +2349,19 @@
       <c r="O25" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P25" s="4" t="n">
+      <c r="Q25" s="4" t="n">
         <v>20887039.76</v>
       </c>
-      <c r="Q25" s="4" t="n">
+      <c r="R25" s="4" t="n">
         <v>4386278.35</v>
       </c>
-      <c r="R25" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T25" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4" t="n">
         <v>25273318.11</v>
       </c>
     </row>
@@ -2419,19 +2424,19 @@
       <c r="O26" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P26" s="4" t="n">
+      <c r="Q26" s="4" t="n">
         <v>27995907.18</v>
       </c>
-      <c r="Q26" s="4" t="n">
+      <c r="R26" s="4" t="n">
         <v>5879140.51</v>
       </c>
-      <c r="R26" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T26" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" s="4" t="n">
         <v>33875047.69</v>
       </c>
     </row>
@@ -2494,19 +2499,19 @@
       <c r="O27" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P27" s="4" t="n">
+      <c r="Q27" s="4" t="n">
         <v>1480.37</v>
       </c>
-      <c r="Q27" s="4" t="n">
+      <c r="R27" s="4" t="n">
         <v>310.88</v>
       </c>
-      <c r="R27" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S27" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="4" t="n">
         <v>1791.25</v>
       </c>
     </row>
@@ -2569,19 +2574,19 @@
       <c r="O28" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P28" s="4" t="n">
+      <c r="Q28" s="4" t="n">
         <v>-99971.59999999999</v>
       </c>
-      <c r="Q28" s="4" t="n">
+      <c r="R28" s="4" t="n">
         <v>-20993.45</v>
       </c>
-      <c r="R28" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S28" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T28" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" s="4" t="n">
         <v>-120965.05</v>
       </c>
     </row>
@@ -2644,19 +2649,19 @@
       <c r="O29" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P29" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q29" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R29" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" s="4" t="n">
         <v>2480597</v>
       </c>
-      <c r="S29" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T29" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" s="4" t="n">
         <v>2480597</v>
       </c>
     </row>
@@ -2719,19 +2724,19 @@
       <c r="O30" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P30" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q30" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" s="4" t="n">
         <v>13040000</v>
       </c>
-      <c r="S30" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T30" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" s="4" t="n">
         <v>13040000</v>
       </c>
     </row>
@@ -2794,19 +2799,19 @@
       <c r="O31" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P31" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q31" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" s="4" t="n">
         <v>4007520</v>
       </c>
-      <c r="S31" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T31" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" s="4" t="n">
         <v>4007520</v>
       </c>
     </row>
@@ -2869,19 +2874,19 @@
       <c r="O32" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P32" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" s="4" t="n">
         <v>16000000</v>
       </c>
-      <c r="S32" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T32" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" s="4" t="n">
         <v>16000000</v>
       </c>
     </row>
@@ -2944,19 +2949,19 @@
       <c r="O33" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P33" s="4" t="n">
+      <c r="Q33" s="4" t="n">
         <v>28925.61</v>
       </c>
-      <c r="Q33" s="4" t="n">
+      <c r="R33" s="4" t="n">
         <v>6074.38</v>
       </c>
-      <c r="R33" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S33" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T33" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" s="4" t="n">
         <v>34999.99</v>
       </c>
     </row>
@@ -3019,19 +3024,19 @@
       <c r="O34" s="5" t="n">
         <v>10.5</v>
       </c>
-      <c r="P34" s="4" t="n">
+      <c r="Q34" s="4" t="n">
         <v>1013.52</v>
       </c>
-      <c r="Q34" s="4" t="n">
+      <c r="R34" s="4" t="n">
         <v>106.42</v>
       </c>
-      <c r="R34" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S34" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" s="4" t="n">
         <v>1119.94</v>
       </c>
     </row>
@@ -3094,19 +3099,19 @@
       <c r="O35" s="5" t="n">
         <v>10.5</v>
       </c>
-      <c r="P35" s="4" t="n">
+      <c r="Q35" s="4" t="n">
         <v>1014120</v>
       </c>
-      <c r="Q35" s="4" t="n">
+      <c r="R35" s="4" t="n">
         <v>106482.6</v>
       </c>
-      <c r="R35" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S35" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T35" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" s="4" t="n">
         <v>1120602.6</v>
       </c>
     </row>
@@ -3169,19 +3174,19 @@
       <c r="O36" s="5" t="n">
         <v>10.5</v>
       </c>
-      <c r="P36" s="4" t="n">
+      <c r="Q36" s="4" t="n">
         <v>66877828.05</v>
       </c>
-      <c r="Q36" s="4" t="n">
+      <c r="R36" s="4" t="n">
         <v>7022171.95</v>
       </c>
-      <c r="R36" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S36" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" s="4" t="n">
         <v>73900000</v>
       </c>
     </row>
@@ -3244,19 +3249,19 @@
       <c r="O37" s="5" t="n">
         <v>10.5</v>
       </c>
-      <c r="P37" s="4" t="n">
+      <c r="Q37" s="4" t="n">
         <v>-1013.52</v>
       </c>
-      <c r="Q37" s="4" t="n">
+      <c r="R37" s="4" t="n">
         <v>-106.42</v>
       </c>
-      <c r="R37" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S37" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T37" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" s="4" t="n">
         <v>-1119.94</v>
       </c>
     </row>
@@ -3319,19 +3324,19 @@
       <c r="O38" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P38" s="4" t="n">
+      <c r="Q38" s="4" t="n">
         <v>2414507.4</v>
       </c>
-      <c r="Q38" s="4" t="n">
+      <c r="R38" s="4" t="n">
         <v>507046.55</v>
       </c>
-      <c r="R38" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S38" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" s="4" t="n">
         <v>438446</v>
       </c>
-      <c r="T38" s="4" t="n">
+      <c r="U38" s="4" t="n">
         <v>3359999.95</v>
       </c>
     </row>
@@ -3394,19 +3399,19 @@
       <c r="O39" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P39" s="4" t="n">
+      <c r="Q39" s="4" t="n">
         <v>5243525</v>
       </c>
-      <c r="Q39" s="4" t="n">
+      <c r="R39" s="4" t="n">
         <v>1101140.25</v>
       </c>
-      <c r="R39" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S39" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T39" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" s="4" t="n">
         <v>6344665.25</v>
       </c>
     </row>
@@ -3469,19 +3474,19 @@
       <c r="O40" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P40" s="4" t="n">
+      <c r="Q40" s="4" t="n">
         <v>25689.67</v>
       </c>
-      <c r="Q40" s="4" t="n">
+      <c r="R40" s="4" t="n">
         <v>5394.83</v>
       </c>
-      <c r="R40" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S40" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T40" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" s="4" t="n">
         <v>31084.5</v>
       </c>
     </row>
@@ -3544,19 +3549,19 @@
       <c r="O41" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P41" s="4" t="n">
+      <c r="Q41" s="4" t="n">
         <v>24790.53</v>
       </c>
-      <c r="Q41" s="4" t="n">
+      <c r="R41" s="4" t="n">
         <v>5206.01</v>
       </c>
-      <c r="R41" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S41" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T41" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" s="4" t="n">
         <v>29996.54</v>
       </c>
     </row>
@@ -3619,19 +3624,19 @@
       <c r="O42" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P42" s="4" t="n">
+      <c r="Q42" s="4" t="n">
         <v>73328.36</v>
       </c>
-      <c r="Q42" s="4" t="n">
+      <c r="R42" s="4" t="n">
         <v>15398.95</v>
       </c>
-      <c r="R42" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S42" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="4" t="n">
         <v>11272.6</v>
       </c>
-      <c r="T42" s="4" t="n">
+      <c r="U42" s="4" t="n">
         <v>99999.91</v>
       </c>
     </row>
@@ -3694,19 +3699,19 @@
       <c r="O43" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P43" s="4" t="n">
+      <c r="Q43" s="4" t="n">
         <v>24232.52</v>
       </c>
-      <c r="Q43" s="4" t="n">
+      <c r="R43" s="4" t="n">
         <v>5088.83</v>
       </c>
-      <c r="R43" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S43" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T43" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" s="4" t="n">
         <v>29321.35</v>
       </c>
     </row>
@@ -3769,19 +3774,19 @@
       <c r="O44" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P44" s="4" t="n">
+      <c r="Q44" s="4" t="n">
         <v>24232.52</v>
       </c>
-      <c r="Q44" s="4" t="n">
+      <c r="R44" s="4" t="n">
         <v>5088.83</v>
       </c>
-      <c r="R44" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S44" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T44" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" s="4" t="n">
         <v>29321.35</v>
       </c>
     </row>
@@ -3844,19 +3849,19 @@
       <c r="O45" s="5" t="n">
         <v>21</v>
       </c>
-      <c r="P45" s="4" t="n">
+      <c r="Q45" s="4" t="n">
         <v>31156.79</v>
       </c>
-      <c r="Q45" s="4" t="n">
+      <c r="R45" s="4" t="n">
         <v>6542.93</v>
       </c>
-      <c r="R45" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S45" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T45" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" s="4" t="n">
         <v>37699.72</v>
       </c>
     </row>
@@ -3919,19 +3924,19 @@
       <c r="O46" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P46" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q46" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R46" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" s="4" t="n">
         <v>-29996.54</v>
       </c>
-      <c r="S46" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T46" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" s="4" t="n">
         <v>-29996.54</v>
       </c>
     </row>
@@ -3994,19 +3999,19 @@
       <c r="O47" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P47" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q47" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R47" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" s="4" t="n">
         <v>-31084.5</v>
       </c>
-      <c r="S47" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T47" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" s="4" t="n">
         <v>-31084.5</v>
       </c>
     </row>
@@ -4069,19 +4074,19 @@
       <c r="O48" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P48" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q48" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R48" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" s="4" t="n">
         <v>-29321.35</v>
       </c>
-      <c r="S48" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T48" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" s="4" t="n">
         <v>-29321.35</v>
       </c>
     </row>
@@ -4144,19 +4149,19 @@
       <c r="O49" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P49" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q49" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R49" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" s="4" t="n">
         <v>-37699.71</v>
       </c>
-      <c r="S49" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T49" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" s="4" t="n">
         <v>-37699.71</v>
       </c>
     </row>
@@ -4219,19 +4224,19 @@
       <c r="O50" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P50" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q50" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R50" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" s="4" t="n">
         <v>-29321.35</v>
       </c>
-      <c r="S50" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T50" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" s="4" t="n">
         <v>-29321.35</v>
       </c>
     </row>
@@ -4294,19 +4299,19 @@
       <c r="O51" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P51" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q51" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R51" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" s="4" t="n">
         <v>5940000</v>
       </c>
-      <c r="S51" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T51" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" s="4" t="n">
         <v>5940000</v>
       </c>
     </row>
@@ -4369,19 +4374,19 @@
       <c r="O52" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P52" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q52" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R52" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" s="4" t="n">
         <v>3200000</v>
       </c>
-      <c r="S52" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T52" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" s="4" t="n">
         <v>3200000</v>
       </c>
     </row>
@@ -4444,19 +4449,19 @@
       <c r="O53" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P53" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q53" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R53" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" s="4" t="n">
         <v>105000</v>
       </c>
-      <c r="S53" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T53" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" s="4" t="n">
         <v>105000</v>
       </c>
     </row>
@@ -4519,19 +4524,19 @@
       <c r="O54" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="P54" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Q54" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R54" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" s="4" t="n">
         <v>213000</v>
       </c>
-      <c r="S54" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="T54" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" s="4" t="n">
         <v>213000</v>
       </c>
     </row>
